--- a/documents/Experiment Results/Dynamic Window/50kbs 500ms 10rps AVDC Summary.xlsx
+++ b/documents/Experiment Results/Dynamic Window/50kbs 500ms 10rps AVDC Summary.xlsx
@@ -408,22 +408,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>19781</c:v>
+                  <c:v>18478</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7876</c:v>
+                  <c:v>7990</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4239</c:v>
+                  <c:v>3962</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3812</c:v>
+                  <c:v>3726</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5473</c:v>
+                  <c:v>5470</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>10336</c:v>
+                  <c:v>10349</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -483,19 +483,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>19646</c:v>
+                  <c:v>18434</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7609</c:v>
+                  <c:v>7778</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3530</c:v>
+                  <c:v>3247</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2450</c:v>
+                  <c:v>2351</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2240</c:v>
+                  <c:v>2429</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2784</c:v>
@@ -1607,7 +1607,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1674,39 +1674,39 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>19781</v>
+        <v>18478</v>
       </c>
       <c r="B4">
-        <v>7876</v>
+        <v>7990</v>
       </c>
       <c r="C4">
-        <v>4239</v>
+        <v>3962</v>
       </c>
       <c r="D4">
-        <v>3812</v>
+        <v>3726</v>
       </c>
       <c r="E4">
-        <v>5473</v>
+        <v>5470</v>
       </c>
       <c r="F4">
-        <v>10336</v>
+        <v>10349</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>19646</v>
+        <v>18434</v>
       </c>
       <c r="B5">
-        <v>7609</v>
+        <v>7778</v>
       </c>
       <c r="C5">
-        <v>3530</v>
+        <v>3247</v>
       </c>
       <c r="D5">
-        <v>2450</v>
+        <v>2351</v>
       </c>
       <c r="E5">
-        <v>2240</v>
+        <v>2429</v>
       </c>
       <c r="F5">
         <v>2784</v>
